--- a/Uni-Mannheim/Mappe1.xlsx
+++ b/Uni-Mannheim/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Studium\Uni-Mannheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10121F7-84F9-483D-B045-0AC20A45622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A961835-D924-4263-8BFE-A60F54D4E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0BECDD04-B119-4898-B5A3-5A531774AA63}"/>
   </bookViews>
@@ -948,11 +948,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7431FBC4-6831-4615-B5BC-C49E97A3AD7A}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="37.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3862,67 +3865,170 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O64:O69"/>
-    <mergeCell ref="P64:P69"/>
-    <mergeCell ref="Q64:R69"/>
-    <mergeCell ref="S64:S69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="J64:J69"/>
-    <mergeCell ref="K64:K69"/>
-    <mergeCell ref="L64:L69"/>
-    <mergeCell ref="M64:M69"/>
-    <mergeCell ref="N64:N69"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:E69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="D7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:R10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="Q22:R25"/>
+    <mergeCell ref="S22:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="Q30:R33"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:R43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="P49:P50"/>
     <mergeCell ref="Q49:R50"/>
     <mergeCell ref="S49:S50"/>
@@ -3939,175 +4045,73 @@
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="N49:N50"/>
     <mergeCell ref="O49:O50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:R43"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="Q30:R33"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="Q22:R25"/>
-    <mergeCell ref="S22:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:E69"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O64:O69"/>
+    <mergeCell ref="P64:P69"/>
+    <mergeCell ref="Q64:R69"/>
+    <mergeCell ref="S64:S69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="J64:J69"/>
+    <mergeCell ref="K64:K69"/>
+    <mergeCell ref="L64:L69"/>
+    <mergeCell ref="M64:M69"/>
+    <mergeCell ref="N64:N69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="Q73:R73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" display="https://unitwikis.uni-mannheim.de/xwiki/bin/view/Informations- und Verwaltungssysteme %28IVS%29/Organisatorisches/" xr:uid="{7137C247-1421-42CA-9215-E8131AAC1559}"/>
     <hyperlink ref="H27" r:id="rId2" display="mailto:unit.wikis@uni-mannheim.de" xr:uid="{85F9B1F6-1557-4C2B-814D-5242D55E7EBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>